--- a/Results/7-Oct-2017_SteadyStateTest_WithGrounding.xlsx
+++ b/Results/7-Oct-2017_SteadyStateTest_WithGrounding.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local\GasChamberSoftware\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyl1g15/GasChamberSoftware/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="7-Oct-2017_SteadyStateTest_With" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -52,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +192,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -484,6 +501,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -529,9 +566,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -588,7300 +630,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resistance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$A$2:$A$262</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="261"/>
-                <c:pt idx="0">
-                  <c:v>43015.801851851851</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43015.801863425928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43015.801863425928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43015.801874999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43015.801886574074</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43015.801898148151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43015.80190972222</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43015.801921296297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43015.801932870374</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43015.801944444444</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43015.80195601852</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43015.80195601852</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43015.80196759259</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43015.801979166667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43015.801990740743</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43015.802002314813</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43015.80201388889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43015.802025462966</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43015.802037037036</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43015.802037037036</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43015.802048611113</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43015.802060185182</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43015.802071759259</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43015.802083333336</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43015.802094907405</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43015.802106481482</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43015.802118055559</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43015.802129629628</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43015.802129629628</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43015.802141203705</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43015.802152777775</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43015.802164351851</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43015.802175925928</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43015.802187499998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43015.802199074074</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43015.802210648151</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43015.802210648151</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43015.802222222221</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43015.802233796298</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43015.802245370367</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43015.802256944444</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43015.802268518521</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43015.80228009259</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43015.802291666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43015.802303240744</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43015.802303240744</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43015.802314814813</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43015.80232638889</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43015.802337962959</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43015.802349537036</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43015.802361111113</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43015.802372685182</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43015.802384259259</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43015.802395833336</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43015.802395833336</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43015.802407407406</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43015.802418981482</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43015.802430555559</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43015.802442129629</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43015.802453703705</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43015.802476851852</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43015.802488425928</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43015.802488425928</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43015.802499999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43015.802511574075</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43015.802523148152</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43015.802534722221</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43015.802546296298</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43015.802557870367</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43015.802569444444</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43015.802569444444</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43015.802581018521</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43015.80259259259</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43015.802604166667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>43015.802615740744</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43015.802627314813</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43015.80263888889</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43015.80265046296</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43015.80265046296</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43015.802662037036</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43015.802673611113</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43015.802685185183</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43015.80269675926</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43015.802708333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43015.802719907406</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43015.802731481483</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43015.802743055552</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43015.802743055552</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>43015.802754629629</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43015.802766203706</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>43015.802777777775</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43015.802789351852</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43015.802800925929</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>43015.802812499998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>43015.802824074075</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>43015.802824074075</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>43015.802835648145</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>43015.802847222221</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>43015.802858796298</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>43015.802870370368</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>43015.802881944444</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>43015.802893518521</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>43015.802905092591</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>43015.802916666667</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>43015.802916666667</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>43015.802928240744</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>43015.802939814814</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>43015.802951388891</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>43015.80296296296</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>43015.802974537037</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>43015.802986111114</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>43015.802997685183</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>43015.802997685183</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>43015.80300925926</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>43015.803020833337</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>43015.803032407406</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>43015.803043981483</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>43015.803055555552</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43015.803067129629</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>43015.803078703706</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>43015.803090277775</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>43015.803090277775</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>43015.803101851852</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>43015.803113425929</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>43015.803124999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>43015.803136574075</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>43015.803148148145</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>43015.803159722222</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>43015.803171296298</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>43015.803171296298</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>43015.803182870368</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>43015.803194444445</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>43015.803206018521</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>43015.803217592591</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>43015.803229166668</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>43015.803240740737</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>43015.803252314814</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>43015.803263888891</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>43015.803263888891</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>43015.80327546296</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>43015.803287037037</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>43015.803298611114</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>43015.803310185183</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>43015.80332175926</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>43015.803333333337</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>43015.803344907406</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>43015.803344907406</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>43015.803356481483</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>43015.803368055553</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>43015.803379629629</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>43015.803391203706</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>43015.803402777776</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>43015.803414351853</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>43015.803425925929</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>43015.803437499999</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>43015.803437499999</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>43015.803449074076</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>43015.803460648145</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>43015.803472222222</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>43015.803483796299</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>43015.803495370368</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>43015.803506944445</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>43015.803518518522</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>43015.803518518522</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>43015.803530092591</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>43015.803541666668</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>43015.803553240738</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>43015.803564814814</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>43015.803576388891</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>43015.803587962961</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>43015.803599537037</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>43015.803611111114</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>43015.803611111114</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>43015.803622685184</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>43015.80363425926</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>43015.80364583333</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>43015.803657407407</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>43015.803668981483</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>43015.803680555553</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>43015.80369212963</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>43015.80369212963</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>43015.803703703707</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>43015.803715277776</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>43015.803726851853</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>43015.803738425922</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>43015.803749999999</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>43015.803761574076</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>43015.803773148145</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>43015.803784722222</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>43015.803784722222</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>43015.803796296299</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>43015.803807870368</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>43015.803819444445</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>43015.803831018522</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>43015.803842592592</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>43015.803854166668</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>43015.803865740738</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>43015.803865740738</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>43015.803877314815</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>43015.803888888891</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>43015.803900462961</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>43015.803912037038</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>43015.803923611114</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>43015.803935185184</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>43015.803946759261</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>43015.80395833333</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>43015.80395833333</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>43015.803969907407</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>43015.803981481484</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>43015.803993055553</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>43015.80400462963</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>43015.804016203707</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>43015.804027777776</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>43015.804039351853</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>43015.804039351853</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>43015.804050925923</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>43015.804062499999</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>43015.804074074076</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>43015.804085648146</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>43015.804097222222</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>43015.804108796299</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>43015.804120370369</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>43015.804131944446</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>43015.804131944446</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>43015.804143518515</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>43015.804155092592</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>43015.804166666669</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>43015.804178240738</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>43015.804189814815</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>43015.804201388892</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>43015.804212962961</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>43015.804224537038</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>43015.804224537038</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>43015.804236111115</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>43015.804247685184</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>43015.804259259261</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>43015.804270833331</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>43015.804282407407</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>43015.804293981484</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>43015.804305555554</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>43015.804305555554</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>43015.80431712963</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>43015.804328703707</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>43015.804340277777</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>43015.804351851853</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>43015.804363425923</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>43015.804375</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>43015.804386574076</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>43015.804398148146</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>43015.804398148146</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>43015.804409722223</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>43015.8044212963</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>43015.804432870369</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>43015.804444444446</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>43015.804456018515</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>43015.804467592592</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>43015.804479166669</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>43015.804479166669</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>43015.804490740738</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>43015.804502314815</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>43015.804513888892</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$F$2:$F$262</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
-                <c:pt idx="0">
-                  <c:v>2573.1982419999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2573.2094729999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2573.2641600000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2573.0986330000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2573.1616210000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2573.1604000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2573.141357</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2573.163086</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2573.2553710000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2573.0668949999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2573.1054690000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2573.1215820000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2573.1660160000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2573.116211</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2573.2104490000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2573.1591800000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2573.2158199999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2573.1289059999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2573.0961910000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2573.142578</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2573.13501</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2573.1857909999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2573.1445309999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2573.2453609999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2573.0810550000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2573.0422359999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2572.9340820000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2573.03125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2572.946289</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2573.0590820000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2573.0407709999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2573.0854490000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2574.524414</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2573.5654300000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2573.3007809999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2573.6477049999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2573.290039</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2573.5151369999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2573.2304690000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2573.821289</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2573.5646969999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2574.7089839999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2574.6142580000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2573.9233399999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2573.0986330000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2573.0820309999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2573.1303710000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2572.9956050000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2573.0986330000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2573.0971679999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2573.0432129999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2573.1518550000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2573.1279300000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2573.0141600000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2573.0483399999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2573.0874020000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2573.1103520000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2572.9880370000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2573.0703130000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2573.1401369999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2573.0354000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2573.0734859999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2573.0688479999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2573.0187989999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2572.9804690000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2573.154297</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2573.0283199999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2573.1342770000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2573.1091310000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2573.0756839999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2573.0854490000002</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2573.0727539999998</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2573.1125489999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2573.0283199999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2573.0517580000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2573.0532229999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2572.9902339999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2572.8967290000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2572.9682619999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2573.0603030000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2573.036865</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2573.0017090000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2572.998047</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2573.0078130000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2573.0654300000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2573.0898440000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2572.9799800000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2573.1157229999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2573.1245119999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2573.0490719999998</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2572.9897460000002</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2573.0107419999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2573.126953</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2573.0385740000002</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2573.0141600000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2573.0385740000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2573.1367190000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2573.055664</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2573.1679690000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2573.0429690000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2572.9921880000002</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2572.921875</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2573.0246579999998</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2572.9921880000002</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2573.0317380000001</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2573.0715329999998</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2573.0273440000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2573.0629880000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2573.0166020000001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2573.1694339999999</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2573.023682</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2573.0942380000001</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2572.9887699999999</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2573.0485840000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2573.0217290000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2573.0744629999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2572.9345699999999</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2573.1271969999998</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2573.1684570000002</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2573.095703</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2573.0153810000002</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2573.0976559999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2572.9147950000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2573.03125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2573.0141600000002</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2572.9328609999998</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2572.8930660000001</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2572.9135740000002</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2572.8549800000001</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2573.0053710000002</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2572.8852539999998</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2572.9072270000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2572.9658199999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2573.0466310000002</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2573.0676269999999</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2573.0373540000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2573.0683589999999</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2572.9704590000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2573.0219729999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2572.955078</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2572.9711910000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2573.0859380000002</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2573.0227049999999</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2573.0839839999999</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2573.0678710000002</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2572.9990229999999</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2573.0654300000001</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2573.0153810000002</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2572.9072270000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2572.9384770000001</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2572.9545899999998</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2573.0375979999999</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2573.0620119999999</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2573.1567380000001</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2573.095703</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2573.1523440000001</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2573.2124020000001</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2573.158203</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2573.1721189999998</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2573.0097660000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2573.217529</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2573.0830080000001</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2573.1977539999998</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2573.2016600000002</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2573.1704100000002</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2573.2070309999999</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2573.1762699999999</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2573.1899410000001</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2573.189453</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2573.272461</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2573.2983399999998</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2573.1713869999999</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2573.2246089999999</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2573.1459960000002</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2573.189453</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2573.1953130000002</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>2573.2075199999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2573.2265630000002</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2573.2739259999998</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2573.1186520000001</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2573.1015630000002</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2573.0922850000002</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2573.1342770000001</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2573.0478520000001</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2573.133789</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2573.1166990000002</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2573.1052249999998</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2573.1748050000001</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2573.1420899999998</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2573.1762699999999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2573.0097660000001</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2573.1369629999999</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2573.1440429999998</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2573.1298830000001</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2573.1865229999999</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2573.180664</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2573.1374510000001</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2573.0893550000001</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2573.1308589999999</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2573.2150879999999</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2573.0815429999998</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2573.0620119999999</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>2573.1196289999998</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>2573.1225589999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>2573.2470699999999</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2573.250732</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2573.101807</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>2573.1066890000002</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>2573.0976559999999</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>2573.1381839999999</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2573.1096189999998</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>2573.1003420000002</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2573.1245119999999</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>2573.1801759999998</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>2573.1904300000001</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>2573.1088869999999</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2573.1120609999998</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>2573.1826169999999</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>2573.0786130000001</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2573.0625</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2573.085693</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>2573.1008299999999</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>2573.1708979999999</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>2573.1054690000001</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>2573.0434570000002</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>2573.0590820000002</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2572.985107</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2573.0458979999999</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2573.0092770000001</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2573.0302729999999</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2572.9941410000001</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>2573.0571289999998</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2573.0102539999998</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2573.0151369999999</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2572.9580080000001</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2573.0217290000001</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2573.0446780000002</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2572.8896479999999</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2573.0727539999998</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2573.118164</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2573.0859380000002</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2573.09375</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2573.1362300000001</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2573.1210940000001</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>2573.0786130000001</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2573.0852049999999</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2573.008789</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>2573.0288089999999</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>2572.9692380000001</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>2573.0131839999999</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2572.961914</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2573.0356449999999</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2573.1533199999999</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2573.189453</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2573.1674800000001</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2573.1357419999999</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2573.0581050000001</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2573.1054690000001</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2573.079346</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2573.1208499999998</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2573.0859380000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="486662072"/>
-        <c:axId val="486660504"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="486662072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="486660504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="486660504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="486662072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$A$2:$A$263</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="262"/>
-                <c:pt idx="0">
-                  <c:v>43015.801851851851</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43015.801863425928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43015.801863425928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43015.801874999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43015.801886574074</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43015.801898148151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43015.80190972222</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43015.801921296297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43015.801932870374</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43015.801944444444</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43015.80195601852</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43015.80195601852</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43015.80196759259</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43015.801979166667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43015.801990740743</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43015.802002314813</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43015.80201388889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43015.802025462966</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43015.802037037036</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43015.802037037036</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43015.802048611113</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43015.802060185182</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43015.802071759259</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43015.802083333336</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43015.802094907405</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43015.802106481482</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43015.802118055559</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43015.802129629628</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43015.802129629628</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43015.802141203705</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43015.802152777775</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43015.802164351851</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43015.802175925928</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43015.802187499998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43015.802199074074</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43015.802210648151</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43015.802210648151</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43015.802222222221</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43015.802233796298</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43015.802245370367</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43015.802256944444</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43015.802268518521</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43015.80228009259</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43015.802291666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43015.802303240744</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43015.802303240744</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43015.802314814813</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43015.80232638889</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43015.802337962959</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43015.802349537036</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43015.802361111113</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43015.802372685182</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43015.802384259259</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43015.802395833336</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43015.802395833336</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43015.802407407406</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43015.802418981482</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43015.802430555559</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43015.802442129629</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43015.802453703705</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43015.802476851852</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43015.802488425928</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43015.802488425928</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43015.802499999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43015.802511574075</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43015.802523148152</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43015.802534722221</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43015.802546296298</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43015.802557870367</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43015.802569444444</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43015.802569444444</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43015.802581018521</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43015.80259259259</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43015.802604166667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>43015.802615740744</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43015.802627314813</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43015.80263888889</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43015.80265046296</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43015.80265046296</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43015.802662037036</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43015.802673611113</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43015.802685185183</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43015.80269675926</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43015.802708333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43015.802719907406</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43015.802731481483</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43015.802743055552</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43015.802743055552</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>43015.802754629629</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43015.802766203706</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>43015.802777777775</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43015.802789351852</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43015.802800925929</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>43015.802812499998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>43015.802824074075</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>43015.802824074075</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>43015.802835648145</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>43015.802847222221</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>43015.802858796298</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>43015.802870370368</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>43015.802881944444</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>43015.802893518521</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>43015.802905092591</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>43015.802916666667</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>43015.802916666667</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>43015.802928240744</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>43015.802939814814</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>43015.802951388891</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>43015.80296296296</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>43015.802974537037</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>43015.802986111114</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>43015.802997685183</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>43015.802997685183</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>43015.80300925926</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>43015.803020833337</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>43015.803032407406</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>43015.803043981483</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>43015.803055555552</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43015.803067129629</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>43015.803078703706</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>43015.803090277775</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>43015.803090277775</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>43015.803101851852</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>43015.803113425929</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>43015.803124999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>43015.803136574075</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>43015.803148148145</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>43015.803159722222</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>43015.803171296298</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>43015.803171296298</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>43015.803182870368</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>43015.803194444445</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>43015.803206018521</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>43015.803217592591</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>43015.803229166668</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>43015.803240740737</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>43015.803252314814</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>43015.803263888891</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>43015.803263888891</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>43015.80327546296</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>43015.803287037037</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>43015.803298611114</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>43015.803310185183</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>43015.80332175926</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>43015.803333333337</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>43015.803344907406</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>43015.803344907406</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>43015.803356481483</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>43015.803368055553</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>43015.803379629629</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>43015.803391203706</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>43015.803402777776</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>43015.803414351853</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>43015.803425925929</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>43015.803437499999</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>43015.803437499999</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>43015.803449074076</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>43015.803460648145</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>43015.803472222222</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>43015.803483796299</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>43015.803495370368</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>43015.803506944445</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>43015.803518518522</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>43015.803518518522</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>43015.803530092591</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>43015.803541666668</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>43015.803553240738</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>43015.803564814814</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>43015.803576388891</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>43015.803587962961</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>43015.803599537037</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>43015.803611111114</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>43015.803611111114</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>43015.803622685184</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>43015.80363425926</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>43015.80364583333</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>43015.803657407407</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>43015.803668981483</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>43015.803680555553</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>43015.80369212963</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>43015.80369212963</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>43015.803703703707</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>43015.803715277776</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>43015.803726851853</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>43015.803738425922</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>43015.803749999999</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>43015.803761574076</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>43015.803773148145</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>43015.803784722222</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>43015.803784722222</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>43015.803796296299</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>43015.803807870368</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>43015.803819444445</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>43015.803831018522</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>43015.803842592592</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>43015.803854166668</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>43015.803865740738</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>43015.803865740738</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>43015.803877314815</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>43015.803888888891</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>43015.803900462961</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>43015.803912037038</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>43015.803923611114</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>43015.803935185184</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>43015.803946759261</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>43015.80395833333</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>43015.80395833333</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>43015.803969907407</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>43015.803981481484</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>43015.803993055553</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>43015.80400462963</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>43015.804016203707</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>43015.804027777776</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>43015.804039351853</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>43015.804039351853</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>43015.804050925923</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>43015.804062499999</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>43015.804074074076</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>43015.804085648146</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>43015.804097222222</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>43015.804108796299</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>43015.804120370369</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>43015.804131944446</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>43015.804131944446</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>43015.804143518515</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>43015.804155092592</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>43015.804166666669</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>43015.804178240738</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>43015.804189814815</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>43015.804201388892</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>43015.804212962961</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>43015.804224537038</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>43015.804224537038</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>43015.804236111115</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>43015.804247685184</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>43015.804259259261</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>43015.804270833331</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>43015.804282407407</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>43015.804293981484</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>43015.804305555554</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>43015.804305555554</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>43015.80431712963</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>43015.804328703707</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>43015.804340277777</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>43015.804351851853</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>43015.804363425923</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>43015.804375</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>43015.804386574076</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>43015.804398148146</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>43015.804398148146</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>43015.804409722223</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>43015.8044212963</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>43015.804432870369</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>43015.804444444446</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>43015.804456018515</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>43015.804467592592</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>43015.804479166669</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>43015.804479166669</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>43015.804490740738</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>43015.804502314815</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>43015.804513888892</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$B$2:$B$263</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
-                <c:pt idx="0">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1010.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1010.88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1011.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1010.85</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1010.88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1010.83</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1010.88</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1011.21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1010.72</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1010.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1011.06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1010.64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1011.12</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1011.23</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1011.09</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1011.21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1011.21</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1011.19</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1011.13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1011.18</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1011.16</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1011.12</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1011.06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1011.04</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1011.06</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1009.51</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1009.98</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1010.59</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1011.8</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1006.69</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1010.77</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1011.04</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1013.77</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1013.17</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1011.79</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1012.68</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1012.34</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1012.49</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1012.63</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1013.24</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1012.61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1012.39</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1011.07</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1010.9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1011.25</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1010.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1010.82</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1011.04</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1011.01</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1011.01</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1011.01</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1011.01</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1011.05</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1011.04</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1010.9</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1011.01</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1010.9</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1010.9</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1010.9</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1010.89</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1010.87</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1010.9</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1010.88</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1010.9</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1010.88</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>1010.91</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>1010.92</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>1010.94</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>1011.03</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1010.98</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>1010.93</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>1010.95</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>1010.99</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>1010.97</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>1010.96</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>1011.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="484707624"/>
-        <c:axId val="484706448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="484707624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484706448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="484706448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484707624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Humidity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$A$2:$A$263</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="262"/>
-                <c:pt idx="0">
-                  <c:v>43015.801851851851</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43015.801863425928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43015.801863425928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43015.801874999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43015.801886574074</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43015.801898148151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43015.80190972222</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43015.801921296297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43015.801932870374</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43015.801944444444</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43015.80195601852</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43015.80195601852</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43015.80196759259</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43015.801979166667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43015.801990740743</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43015.802002314813</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43015.80201388889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43015.802025462966</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43015.802037037036</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43015.802037037036</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43015.802048611113</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43015.802060185182</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43015.802071759259</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43015.802083333336</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43015.802094907405</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43015.802106481482</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43015.802118055559</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43015.802129629628</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43015.802129629628</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43015.802141203705</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43015.802152777775</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43015.802164351851</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43015.802175925928</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43015.802187499998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43015.802199074074</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43015.802210648151</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43015.802210648151</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43015.802222222221</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43015.802233796298</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43015.802245370367</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43015.802256944444</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43015.802268518521</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43015.80228009259</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43015.802291666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43015.802303240744</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43015.802303240744</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43015.802314814813</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43015.80232638889</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43015.802337962959</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43015.802349537036</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43015.802361111113</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43015.802372685182</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43015.802384259259</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43015.802395833336</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43015.802395833336</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43015.802407407406</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43015.802418981482</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43015.802430555559</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43015.802442129629</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43015.802453703705</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43015.802476851852</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43015.802488425928</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43015.802488425928</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43015.802499999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43015.802511574075</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43015.802523148152</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43015.802534722221</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43015.802546296298</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43015.802557870367</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43015.802569444444</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43015.802569444444</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43015.802581018521</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43015.80259259259</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43015.802604166667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>43015.802615740744</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43015.802627314813</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43015.80263888889</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43015.80265046296</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43015.80265046296</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43015.802662037036</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43015.802673611113</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43015.802685185183</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43015.80269675926</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43015.802708333336</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43015.802719907406</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43015.802731481483</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43015.802743055552</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43015.802743055552</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>43015.802754629629</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43015.802766203706</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>43015.802777777775</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43015.802789351852</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43015.802800925929</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>43015.802812499998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>43015.802824074075</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>43015.802824074075</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>43015.802835648145</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>43015.802847222221</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>43015.802858796298</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>43015.802870370368</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>43015.802881944444</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>43015.802893518521</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>43015.802905092591</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>43015.802916666667</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>43015.802916666667</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>43015.802928240744</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>43015.802939814814</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>43015.802951388891</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>43015.80296296296</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>43015.802974537037</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>43015.802986111114</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>43015.802997685183</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>43015.802997685183</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>43015.80300925926</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>43015.803020833337</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>43015.803032407406</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>43015.803043981483</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>43015.803055555552</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43015.803067129629</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>43015.803078703706</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>43015.803090277775</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>43015.803090277775</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>43015.803101851852</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>43015.803113425929</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>43015.803124999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>43015.803136574075</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>43015.803148148145</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>43015.803159722222</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>43015.803171296298</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>43015.803171296298</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>43015.803182870368</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>43015.803194444445</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>43015.803206018521</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>43015.803217592591</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>43015.803229166668</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>43015.803240740737</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>43015.803252314814</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>43015.803263888891</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>43015.803263888891</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>43015.80327546296</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>43015.803287037037</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>43015.803298611114</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>43015.803310185183</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>43015.80332175926</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>43015.803333333337</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>43015.803344907406</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>43015.803344907406</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>43015.803356481483</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>43015.803368055553</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>43015.803379629629</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>43015.803391203706</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>43015.803402777776</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>43015.803414351853</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>43015.803425925929</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>43015.803437499999</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>43015.803437499999</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>43015.803449074076</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>43015.803460648145</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>43015.803472222222</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>43015.803483796299</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>43015.803495370368</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>43015.803506944445</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>43015.803518518522</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>43015.803518518522</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>43015.803530092591</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>43015.803541666668</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>43015.803553240738</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>43015.803564814814</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>43015.803576388891</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>43015.803587962961</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>43015.803599537037</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>43015.803611111114</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>43015.803611111114</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>43015.803622685184</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>43015.80363425926</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>43015.80364583333</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>43015.803657407407</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>43015.803668981483</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>43015.803680555553</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>43015.80369212963</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>43015.80369212963</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>43015.803703703707</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>43015.803715277776</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>43015.803726851853</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>43015.803738425922</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>43015.803749999999</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>43015.803761574076</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>43015.803773148145</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>43015.803784722222</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>43015.803784722222</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>43015.803796296299</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>43015.803807870368</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>43015.803819444445</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>43015.803831018522</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>43015.803842592592</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>43015.803854166668</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>43015.803865740738</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>43015.803865740738</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>43015.803877314815</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>43015.803888888891</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>43015.803900462961</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>43015.803912037038</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>43015.803923611114</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>43015.803935185184</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>43015.803946759261</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>43015.80395833333</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>43015.80395833333</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>43015.803969907407</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>43015.803981481484</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>43015.803993055553</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>43015.80400462963</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>43015.804016203707</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>43015.804027777776</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>43015.804039351853</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>43015.804039351853</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>43015.804050925923</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>43015.804062499999</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>43015.804074074076</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>43015.804085648146</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>43015.804097222222</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>43015.804108796299</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>43015.804120370369</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>43015.804131944446</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>43015.804131944446</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>43015.804143518515</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>43015.804155092592</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>43015.804166666669</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>43015.804178240738</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>43015.804189814815</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>43015.804201388892</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>43015.804212962961</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>43015.804224537038</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>43015.804224537038</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>43015.804236111115</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>43015.804247685184</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>43015.804259259261</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>43015.804270833331</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>43015.804282407407</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>43015.804293981484</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>43015.804305555554</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>43015.804305555554</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>43015.80431712963</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>43015.804328703707</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>43015.804340277777</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>43015.804351851853</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>43015.804363425923</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>43015.804375</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>43015.804386574076</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>43015.804398148146</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>43015.804398148146</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>43015.804409722223</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>43015.8044212963</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>43015.804432870369</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>43015.804444444446</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>43015.804456018515</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>43015.804467592592</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>43015.804479166669</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>43015.804479166669</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>43015.804490740738</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>43015.804502314815</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>43015.804513888892</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'7-Oct-2017_SteadyStateTest_With'!$D$2:$D$263</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
-                <c:pt idx="0">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>33.369999999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>33.369999999999997</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>33.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>33.43</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>33.43</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>33.43</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>33.43</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>33.43</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>33.36</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>33.42</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>33.42</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="484708800"/>
-        <c:axId val="484703704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="484708800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484703704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="484703704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484708800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76759</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>13726</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>169209</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>560293</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>54909</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8149,16 +897,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="A1:A1048576 D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8187,7 +935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43015.801851851851</v>
       </c>
@@ -8216,7 +964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43015.801863425928</v>
       </c>
@@ -8245,7 +993,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43015.801863425928</v>
       </c>
@@ -8274,7 +1022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43015.801874999997</v>
       </c>
@@ -8303,7 +1051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43015.801886574074</v>
       </c>
@@ -8332,7 +1080,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43015.801898148151</v>
       </c>
@@ -8361,7 +1109,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43015.80190972222</v>
       </c>
@@ -8390,7 +1138,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43015.801921296297</v>
       </c>
@@ -8419,7 +1167,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43015.801932870374</v>
       </c>
@@ -8448,7 +1196,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43015.801944444444</v>
       </c>
@@ -8477,7 +1225,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43015.80195601852</v>
       </c>
@@ -8506,7 +1254,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43015.80195601852</v>
       </c>
@@ -8535,7 +1283,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43015.80196759259</v>
       </c>
@@ -8564,7 +1312,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43015.801979166667</v>
       </c>
@@ -8593,7 +1341,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43015.801990740743</v>
       </c>
@@ -8622,7 +1370,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43015.802002314813</v>
       </c>
@@ -8651,7 +1399,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43015.80201388889</v>
       </c>
@@ -8680,7 +1428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43015.802025462966</v>
       </c>
@@ -8709,7 +1457,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43015.802037037036</v>
       </c>
@@ -8738,7 +1486,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43015.802037037036</v>
       </c>
@@ -8767,7 +1515,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43015.802048611113</v>
       </c>
@@ -8796,7 +1544,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43015.802060185182</v>
       </c>
@@ -8825,7 +1573,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43015.802071759259</v>
       </c>
@@ -8854,7 +1602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43015.802083333336</v>
       </c>
@@ -8883,7 +1631,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43015.802094907405</v>
       </c>
@@ -8912,7 +1660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43015.802106481482</v>
       </c>
@@ -8941,7 +1689,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43015.802118055559</v>
       </c>
@@ -8970,7 +1718,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43015.802129629628</v>
       </c>
@@ -8999,7 +1747,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43015.802129629628</v>
       </c>
@@ -9028,7 +1776,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43015.802141203705</v>
       </c>
@@ -9057,7 +1805,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43015.802152777775</v>
       </c>
@@ -9086,7 +1834,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43015.802164351851</v>
       </c>
@@ -9115,7 +1863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43015.802175925928</v>
       </c>
@@ -9144,7 +1892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43015.802187499998</v>
       </c>
@@ -9173,7 +1921,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43015.802199074074</v>
       </c>
@@ -9202,7 +1950,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43015.802210648151</v>
       </c>
@@ -9231,7 +1979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43015.802210648151</v>
       </c>
@@ -9260,7 +2008,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43015.802222222221</v>
       </c>
@@ -9289,7 +2037,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43015.802233796298</v>
       </c>
@@ -9318,7 +2066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43015.802245370367</v>
       </c>
@@ -9347,7 +2095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43015.802256944444</v>
       </c>
@@ -9376,7 +2124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43015.802268518521</v>
       </c>
@@ -9405,7 +2153,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43015.80228009259</v>
       </c>
@@ -9434,7 +2182,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43015.802291666667</v>
       </c>
@@ -9463,7 +2211,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43015.802303240744</v>
       </c>
@@ -9492,7 +2240,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43015.802303240744</v>
       </c>
@@ -9521,7 +2269,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43015.802314814813</v>
       </c>
@@ -9550,7 +2298,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43015.80232638889</v>
       </c>
@@ -9579,7 +2327,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43015.802337962959</v>
       </c>
@@ -9608,7 +2356,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43015.802349537036</v>
       </c>
@@ -9637,7 +2385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43015.802361111113</v>
       </c>
@@ -9666,7 +2414,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43015.802372685182</v>
       </c>
@@ -9695,7 +2443,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43015.802384259259</v>
       </c>
@@ -9724,7 +2472,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43015.802395833336</v>
       </c>
@@ -9753,7 +2501,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43015.802395833336</v>
       </c>
@@ -9782,7 +2530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43015.802407407406</v>
       </c>
@@ -9811,7 +2559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43015.802418981482</v>
       </c>
@@ -9840,7 +2588,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43015.802430555559</v>
       </c>
@@ -9869,7 +2617,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43015.802442129629</v>
       </c>
@@ -9898,7 +2646,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43015.802453703705</v>
       </c>
@@ -9927,7 +2675,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43015.802476851852</v>
       </c>
@@ -9956,7 +2704,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43015.802488425928</v>
       </c>
@@ -9985,7 +2733,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43015.802488425928</v>
       </c>
@@ -10014,7 +2762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43015.802499999998</v>
       </c>
@@ -10043,7 +2791,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43015.802511574075</v>
       </c>
@@ -10072,7 +2820,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43015.802523148152</v>
       </c>
@@ -10101,7 +2849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43015.802534722221</v>
       </c>
@@ -10130,7 +2878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43015.802546296298</v>
       </c>
@@ -10159,7 +2907,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43015.802557870367</v>
       </c>
@@ -10188,7 +2936,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43015.802569444444</v>
       </c>
@@ -10217,7 +2965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43015.802569444444</v>
       </c>
@@ -10246,7 +2994,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43015.802581018521</v>
       </c>
@@ -10275,7 +3023,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43015.80259259259</v>
       </c>
@@ -10304,7 +3052,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43015.802604166667</v>
       </c>
@@ -10333,7 +3081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43015.802615740744</v>
       </c>
@@ -10362,7 +3110,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43015.802627314813</v>
       </c>
@@ -10391,7 +3139,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43015.80263888889</v>
       </c>
@@ -10420,7 +3168,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43015.80265046296</v>
       </c>
@@ -10449,7 +3197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43015.80265046296</v>
       </c>
@@ -10478,7 +3226,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43015.802662037036</v>
       </c>
@@ -10507,7 +3255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43015.802673611113</v>
       </c>
@@ -10536,7 +3284,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43015.802685185183</v>
       </c>
@@ -10565,7 +3313,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43015.80269675926</v>
       </c>
@@ -10594,7 +3342,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43015.802708333336</v>
       </c>
@@ -10623,7 +3371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43015.802719907406</v>
       </c>
@@ -10652,7 +3400,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43015.802731481483</v>
       </c>
@@ -10681,7 +3429,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43015.802743055552</v>
       </c>
@@ -10710,7 +3458,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43015.802743055552</v>
       </c>
@@ -10739,7 +3487,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43015.802754629629</v>
       </c>
@@ -10768,7 +3516,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43015.802766203706</v>
       </c>
@@ -10797,7 +3545,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43015.802777777775</v>
       </c>
@@ -10826,7 +3574,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43015.802789351852</v>
       </c>
@@ -10855,7 +3603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43015.802800925929</v>
       </c>
@@ -10884,7 +3632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43015.802812499998</v>
       </c>
@@ -10913,7 +3661,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43015.802824074075</v>
       </c>
@@ -10942,7 +3690,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43015.802824074075</v>
       </c>
@@ -10971,7 +3719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43015.802835648145</v>
       </c>
@@ -11000,7 +3748,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43015.802847222221</v>
       </c>
@@ -11029,7 +3777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43015.802858796298</v>
       </c>
@@ -11058,7 +3806,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43015.802870370368</v>
       </c>
@@ -11087,7 +3835,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43015.802881944444</v>
       </c>
@@ -11116,7 +3864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43015.802893518521</v>
       </c>
@@ -11145,7 +3893,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43015.802905092591</v>
       </c>
@@ -11174,7 +3922,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43015.802916666667</v>
       </c>
@@ -11203,7 +3951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43015.802916666667</v>
       </c>
@@ -11232,7 +3980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43015.802928240744</v>
       </c>
@@ -11261,7 +4009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43015.802939814814</v>
       </c>
@@ -11290,7 +4038,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43015.802951388891</v>
       </c>
@@ -11319,7 +4067,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43015.80296296296</v>
       </c>
@@ -11348,7 +4096,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43015.802974537037</v>
       </c>
@@ -11377,7 +4125,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43015.802986111114</v>
       </c>
@@ -11406,7 +4154,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43015.802997685183</v>
       </c>
@@ -11435,7 +4183,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43015.802997685183</v>
       </c>
@@ -11464,7 +4212,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43015.80300925926</v>
       </c>
@@ -11493,7 +4241,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43015.803020833337</v>
       </c>
@@ -11522,7 +4270,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43015.803032407406</v>
       </c>
@@ -11551,7 +4299,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43015.803043981483</v>
       </c>
@@ -11580,7 +4328,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43015.803055555552</v>
       </c>
@@ -11609,7 +4357,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43015.803067129629</v>
       </c>
@@ -11638,7 +4386,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43015.803078703706</v>
       </c>
@@ -11667,7 +4415,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43015.803090277775</v>
       </c>
@@ -11696,7 +4444,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43015.803090277775</v>
       </c>
@@ -11725,7 +4473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43015.803101851852</v>
       </c>
@@ -11754,7 +4502,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43015.803113425929</v>
       </c>
@@ -11783,7 +4531,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43015.803124999999</v>
       </c>
@@ -11812,7 +4560,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43015.803136574075</v>
       </c>
@@ -11841,7 +4589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43015.803148148145</v>
       </c>
@@ -11870,7 +4618,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43015.803159722222</v>
       </c>
@@ -11899,7 +4647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43015.803171296298</v>
       </c>
@@ -11928,7 +4676,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43015.803171296298</v>
       </c>
@@ -11957,7 +4705,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43015.803182870368</v>
       </c>
@@ -11986,7 +4734,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43015.803194444445</v>
       </c>
@@ -12015,7 +4763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43015.803206018521</v>
       </c>
@@ -12044,7 +4792,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43015.803217592591</v>
       </c>
@@ -12073,7 +4821,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43015.803229166668</v>
       </c>
@@ -12102,7 +4850,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43015.803240740737</v>
       </c>
@@ -12131,7 +4879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43015.803252314814</v>
       </c>
@@ -12160,7 +4908,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43015.803263888891</v>
       </c>
@@ -12189,7 +4937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43015.803263888891</v>
       </c>
@@ -12218,7 +4966,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43015.80327546296</v>
       </c>
@@ -12247,7 +4995,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43015.803287037037</v>
       </c>
@@ -12276,7 +5024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43015.803298611114</v>
       </c>
@@ -12305,7 +5053,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43015.803310185183</v>
       </c>
@@ -12334,7 +5082,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43015.80332175926</v>
       </c>
@@ -12363,7 +5111,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43015.803333333337</v>
       </c>
@@ -12392,7 +5140,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43015.803344907406</v>
       </c>
@@ -12421,7 +5169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43015.803344907406</v>
       </c>
@@ -12450,7 +5198,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43015.803356481483</v>
       </c>
@@ -12479,7 +5227,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43015.803368055553</v>
       </c>
@@ -12508,7 +5256,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43015.803379629629</v>
       </c>
@@ -12537,7 +5285,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43015.803391203706</v>
       </c>
@@ -12566,7 +5314,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43015.803402777776</v>
       </c>
@@ -12595,7 +5343,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43015.803414351853</v>
       </c>
@@ -12624,7 +5372,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43015.803425925929</v>
       </c>
@@ -12653,7 +5401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43015.803437499999</v>
       </c>
@@ -12682,7 +5430,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43015.803437499999</v>
       </c>
@@ -12711,7 +5459,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43015.803449074076</v>
       </c>
@@ -12740,7 +5488,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43015.803460648145</v>
       </c>
@@ -12769,7 +5517,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43015.803472222222</v>
       </c>
@@ -12798,7 +5546,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43015.803483796299</v>
       </c>
@@ -12827,7 +5575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43015.803495370368</v>
       </c>
@@ -12856,7 +5604,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43015.803506944445</v>
       </c>
@@ -12885,7 +5633,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43015.803518518522</v>
       </c>
@@ -12914,7 +5662,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43015.803518518522</v>
       </c>
@@ -12943,7 +5691,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43015.803530092591</v>
       </c>
@@ -12972,7 +5720,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43015.803541666668</v>
       </c>
@@ -13001,7 +5749,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43015.803553240738</v>
       </c>
@@ -13030,7 +5778,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43015.803564814814</v>
       </c>
@@ -13059,7 +5807,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43015.803576388891</v>
       </c>
@@ -13088,7 +5836,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43015.803587962961</v>
       </c>
@@ -13117,7 +5865,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43015.803599537037</v>
       </c>
@@ -13146,7 +5894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43015.803611111114</v>
       </c>
@@ -13175,7 +5923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43015.803611111114</v>
       </c>
@@ -13204,7 +5952,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43015.803622685184</v>
       </c>
@@ -13233,7 +5981,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43015.80363425926</v>
       </c>
@@ -13262,7 +6010,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43015.80364583333</v>
       </c>
@@ -13291,7 +6039,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43015.803657407407</v>
       </c>
@@ -13320,7 +6068,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43015.803668981483</v>
       </c>
@@ -13349,7 +6097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43015.803680555553</v>
       </c>
@@ -13378,7 +6126,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43015.80369212963</v>
       </c>
@@ -13407,7 +6155,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43015.80369212963</v>
       </c>
@@ -13436,7 +6184,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43015.803703703707</v>
       </c>
@@ -13465,7 +6213,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43015.803715277776</v>
       </c>
@@ -13494,7 +6242,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43015.803726851853</v>
       </c>
@@ -13523,7 +6271,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43015.803738425922</v>
       </c>
@@ -13552,7 +6300,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43015.803749999999</v>
       </c>
@@ -13581,7 +6329,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43015.803761574076</v>
       </c>
@@ -13610,7 +6358,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43015.803773148145</v>
       </c>
@@ -13639,7 +6387,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43015.803784722222</v>
       </c>
@@ -13668,7 +6416,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43015.803784722222</v>
       </c>
@@ -13697,7 +6445,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43015.803796296299</v>
       </c>
@@ -13726,7 +6474,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43015.803807870368</v>
       </c>
@@ -13755,7 +6503,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43015.803819444445</v>
       </c>
@@ -13784,7 +6532,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43015.803831018522</v>
       </c>
@@ -13813,7 +6561,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43015.803842592592</v>
       </c>
@@ -13842,7 +6590,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43015.803854166668</v>
       </c>
@@ -13871,7 +6619,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43015.803865740738</v>
       </c>
@@ -13900,7 +6648,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43015.803865740738</v>
       </c>
@@ -13929,7 +6677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43015.803877314815</v>
       </c>
@@ -13958,7 +6706,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43015.803888888891</v>
       </c>
@@ -13987,7 +6735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43015.803900462961</v>
       </c>
@@ -14016,7 +6764,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43015.803912037038</v>
       </c>
@@ -14045,7 +6793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43015.803923611114</v>
       </c>
@@ -14074,7 +6822,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43015.803935185184</v>
       </c>
@@ -14103,7 +6851,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43015.803946759261</v>
       </c>
@@ -14132,7 +6880,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43015.80395833333</v>
       </c>
@@ -14161,7 +6909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43015.80395833333</v>
       </c>
@@ -14190,7 +6938,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43015.803969907407</v>
       </c>
@@ -14219,7 +6967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43015.803981481484</v>
       </c>
@@ -14248,7 +6996,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43015.803993055553</v>
       </c>
@@ -14277,7 +7025,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43015.80400462963</v>
       </c>
@@ -14306,7 +7054,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43015.804016203707</v>
       </c>
@@ -14335,7 +7083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43015.804027777776</v>
       </c>
@@ -14364,7 +7112,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43015.804039351853</v>
       </c>
@@ -14393,7 +7141,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43015.804039351853</v>
       </c>
@@ -14422,7 +7170,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43015.804050925923</v>
       </c>
@@ -14451,7 +7199,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43015.804062499999</v>
       </c>
@@ -14480,7 +7228,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43015.804074074076</v>
       </c>
@@ -14509,7 +7257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43015.804085648146</v>
       </c>
@@ -14538,7 +7286,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43015.804097222222</v>
       </c>
@@ -14567,7 +7315,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43015.804108796299</v>
       </c>
@@ -14596,7 +7344,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43015.804120370369</v>
       </c>
@@ -14625,7 +7373,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43015.804131944446</v>
       </c>
@@ -14654,7 +7402,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43015.804131944446</v>
       </c>
@@ -14683,7 +7431,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43015.804143518515</v>
       </c>
@@ -14712,7 +7460,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43015.804155092592</v>
       </c>
@@ -14741,7 +7489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43015.804166666669</v>
       </c>
@@ -14770,7 +7518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43015.804178240738</v>
       </c>
@@ -14799,7 +7547,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43015.804189814815</v>
       </c>
@@ -14828,7 +7576,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43015.804201388892</v>
       </c>
@@ -14857,7 +7605,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43015.804212962961</v>
       </c>
@@ -14886,7 +7634,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43015.804224537038</v>
       </c>
@@ -14915,7 +7663,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43015.804224537038</v>
       </c>
@@ -14944,7 +7692,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43015.804236111115</v>
       </c>
@@ -14973,7 +7721,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43015.804247685184</v>
       </c>
@@ -15002,7 +7750,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43015.804259259261</v>
       </c>
@@ -15031,7 +7779,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43015.804270833331</v>
       </c>
@@ -15060,7 +7808,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43015.804282407407</v>
       </c>
@@ -15089,7 +7837,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43015.804293981484</v>
       </c>
@@ -15118,7 +7866,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43015.804305555554</v>
       </c>
@@ -15147,7 +7895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43015.804305555554</v>
       </c>
@@ -15176,7 +7924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43015.80431712963</v>
       </c>
@@ -15205,7 +7953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43015.804328703707</v>
       </c>
@@ -15234,7 +7982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43015.804340277777</v>
       </c>
@@ -15263,7 +8011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43015.804351851853</v>
       </c>
@@ -15292,7 +8040,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43015.804363425923</v>
       </c>
@@ -15321,7 +8069,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43015.804375</v>
       </c>
@@ -15350,7 +8098,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43015.804386574076</v>
       </c>
@@ -15379,7 +8127,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43015.804398148146</v>
       </c>
@@ -15408,7 +8156,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43015.804398148146</v>
       </c>
@@ -15437,7 +8185,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43015.804409722223</v>
       </c>
@@ -15466,7 +8214,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43015.8044212963</v>
       </c>
@@ -15495,7 +8243,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43015.804432870369</v>
       </c>
@@ -15524,7 +8272,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43015.804444444446</v>
       </c>
@@ -15553,7 +8301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43015.804456018515</v>
       </c>
@@ -15582,7 +8330,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43015.804467592592</v>
       </c>
@@ -15611,7 +8359,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43015.804479166669</v>
       </c>
@@ -15640,7 +8388,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43015.804479166669</v>
       </c>
@@ -15669,7 +8417,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43015.804490740738</v>
       </c>
@@ -15698,7 +8446,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43015.804502314815</v>
       </c>
@@ -15727,7 +8475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43015.804513888892</v>
       </c>
@@ -15770,6 +8518,91 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.14752898678515711</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.37936682212263712</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.51630417589878719</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.1810067426201025E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.18720538082644592</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.11318198343237801</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>